--- a/facebook_data/PrimeLands.xlsx
+++ b/facebook_data/PrimeLands.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F2" t="n">
         <v>6</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="F5" t="n">
         <v>14</v>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F11" t="n">
         <v>12</v>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
@@ -2952,58 +2952,17 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10160110684017290</t>
+          <t>10160110637157290</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>44719.67230324074</v>
+        <v>44719.63292824074</v>
       </c>
       <c r="D61" t="inlineStr">
-        <is>
-          <t>රඹුක්කන පාරට මීටර් 300 යි
-👉 පර්චසයක් 120,000 සිට
-📲 වැඩි විස්තර - 070 300 55 22
-✅ රඹුක්කන මාදනින්, කරඩුපනට ආසන්නවම අගනා බිම් කොටස්
-☎️ අදම අමතන්න - 070 300 55 22
-#PrimeGroup
-300 meters to Rambukkana road
-👉 From 120,000 perch
-📲 More details - 070 300 55 22
-✅ In Rambukkana Madan, valuable land parts near Kadupana
-☎️ Call today - 070 300 55 22
-#PrimeGroup</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>676</v>
-      </c>
-      <c r="F61" t="n">
-        <v>5</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>10160110637157290</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>44719.63292824074</v>
-      </c>
-      <c r="D62" t="inlineStr">
         <is>
           <t>An Unmatched Investment Opportunity from Mabola, Wattala
 👉 A Precious Land Facing Kerawalapitiya Highway
@@ -3015,32 +2974,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="E61" t="n">
         <v>3600</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F61" t="n">
         <v>131</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G61" t="n">
         <v>17</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>10160110634077290</t>
         </is>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C62" s="2" t="n">
         <v>44719.63121527778</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>ගම්පහ නගරයට විනාඩි 10ක දුරින් අගනා බිම් කොටස්
 👉 මිරිස්වත්ත හන්දියට 2.5km
@@ -3065,64 +3024,64 @@
 මිරිස්වත්ත හන්දියට 2.5km දුරින් අගනා බිම් කොටස්</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="E62" t="n">
         <v>39</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F62" t="n">
         <v>30</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G62" t="n">
         <v>4</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>10160104992592290</t>
         </is>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C63" s="2" t="n">
         <v>44716.50114583333</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>We are Happy to Announce Chamika Jayan As the Winner of our "Find the Area" contest! Thank you for taking part everyone!!!
 More Exciting Gifts &amp; Competitions Awaits you.
 #PrimeGroup #FindtheArea #contestwinner #QuizTime</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="E63" t="n">
         <v>29</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F63" t="n">
         <v>9</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G63" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>10160096466337290</t>
         </is>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C64" s="2" t="n">
         <v>44713.62331018518</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>වාද්දුව හරිතබර පරිසරයකින් අගනා බිම් කොටස්
 👉 ගාලු පාරට මීටර් 500යි
@@ -3146,14 +3105,59 @@
 #PrimeGroup</t>
         </is>
       </c>
+      <c r="E64" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F64" t="n">
+        <v>98</v>
+      </c>
+      <c r="G64" t="n">
+        <v>19</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>10160096000557290</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>44713.54423611111</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>මාසිකව රු. 10,000 සිට ගෙවන්න වැලිපැන්නෙන් අගනා ඉඩම්
+👉 පර්චසයක් රු 75,000 සිට
+📲 අදම අමතන්න - 070 500 88 22
+✅ මූලික ගෙවීම - රු. 400,000
+✅ මාසික වාරිකය රු. 10,000 සිට
+👉 පොලී රහිත පහසු ගෙවීමේ ක්‍රම සහිතයි
+📲 වැඩි විස්තර සඳහා අමතන්න - 070 500 88 22
+#PrimeGroup
+Monthly Rs. Valuable land from Welipenna to pay from 10,000
+👉 From Rs. 75,000 perch
+📲 Call today - 070 500 88 22
+✅ Basic Payment - Rs. 400,000
+✅ Monthly installment is Rs. From 10,000
+👉 Interest free easy payment methods included
+📲 Call for more details - 070 500 88 22
+#PrimeGroup</t>
+        </is>
+      </c>
       <c r="E65" t="n">
-        <v>1200</v>
+        <v>4100</v>
       </c>
       <c r="F65" t="n">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="G65" t="n">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3206,17 +3210,58 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>10160093598427290</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>44712.75422453704</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>රඹුක්කන පාරට මීටර් 300 යි
+👉 පර්චසයක් 120,000 සිට
+📲 වැඩි විස්තර - 070 300 55 22
+✅ රඹුක්කන මාදනින්, කරඩුපනට ආසන්නවම අගනා බිම් කොටස්
+☎️ අදම අමතන්න - 070 300 55 22
+#PrimeGroup
+300 meters to Rambukkana road
+👉 From 120,000 perch
+📲 More details - 070 300 55 22
+✅ In Rambukkana Madan, valuable land parts near Kadupana
+☎️ Call today - 070 300 55 22
+#PrimeGroup</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F67" t="n">
+        <v>26</v>
+      </c>
+      <c r="G67" t="n">
+        <v>16</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>10160093515147290</t>
         </is>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C68" s="2" t="n">
         <v>44712.72193287037</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>පොල්ගහවෙල දුම්රිය ස්ථානය ලඟින්ම අගනා බිම් කොටස්
 📲 අදම අමතන්න - 070 300 55 22
@@ -3234,32 +3279,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E67" t="n">
+      <c r="E68" t="n">
         <v>1200</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F68" t="n">
         <v>36</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G68" t="n">
         <v>10</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>10160093498047290</t>
         </is>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C69" s="2" t="n">
         <v>44712.71726851852</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>ගම්පහ නගරයට විනාඩි 10ක දුරින් අගනා බිම් කොටස්
 👉 මිරිස්වත්ත හන්දියට 2.5km
@@ -3283,32 +3328,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="E69" t="n">
         <v>1500</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F69" t="n">
         <v>374</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G69" t="n">
         <v>33</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>10160093469202290</t>
         </is>
       </c>
-      <c r="C69" s="2" t="n">
+      <c r="C70" s="2" t="n">
         <v>44712.70475694445</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>කැළණිය වරාගොඩ පාරෙන් සුපිරි බිම් කොටස්
 📲 අදම අමතන්න - 070 500 66 22
@@ -3328,64 +3373,64 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="E70" t="n">
         <v>1000</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F70" t="n">
         <v>496</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G70" t="n">
         <v>65</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>10160084691397290</t>
         </is>
       </c>
-      <c r="C70" s="2" t="n">
+      <c r="C71" s="2" t="n">
         <v>44708.56462962963</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Can You Find the Area of the Land in Perches? 🏞️
 Answer Correctly and Stand a Chance to Win an Exciting Prize! 🎁
 #PrimeLands #QuizTime</t>
         </is>
       </c>
-      <c r="E70" t="n">
+      <c r="E71" t="n">
         <v>3100</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F71" t="n">
         <v>493</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G71" t="n">
         <v>93</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>10160081379892290</t>
         </is>
       </c>
-      <c r="C71" s="2" t="n">
+      <c r="C72" s="2" t="n">
         <v>44706.80555555555</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Prime Group අපගේ ශාඛා ජාලය තව තවත් ශක්තිමත් කරමින්, අපගේ නවතම ශාඛාව අංක 311, මීගමුව පාර, කුරුණෑගල දී මැයි මස 13 වන දින සාර්ථකව විවෘත කල වගයි.
 වසර 26ක් දේපල වෙළඳාම් ක්ෂේත්‍රයේ විශ්වාසනීය දැවැන්තයා සහ ප්‍රමුඛයා ලෙස ඔබට මිහිකතෙන් හොඳම තැනක් තිළිණ කිරීමට මෙන්ම ඔබගේ සියලුම දේපල අවශ්‍යතා රිසි සේ හඳුනාගෙන ඔබේ මුදලට ඉහලම වටිනාකමක් දීමටද අපි ඇප කැප වී සිටින්නෙමු.
@@ -3397,32 +3442,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E71" t="n">
+      <c r="E72" t="n">
         <v>3900</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F72" t="n">
         <v>85</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G72" t="n">
         <v>47</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>10160081157322290</t>
         </is>
       </c>
-      <c r="C72" s="2" t="n">
+      <c r="C73" s="2" t="n">
         <v>44706.64778935185</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Enjoy The Cool Climate of The Hill Country
 Precious Land Plots from Nuwara Eliya, Ambewela and Kandapola
@@ -3430,32 +3475,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="E73" t="n">
         <v>1100</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F73" t="n">
         <v>60</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G73" t="n">
         <v>18</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>10160081150002290</t>
         </is>
       </c>
-      <c r="C73" s="2" t="n">
+      <c r="C74" s="2" t="n">
         <v>44706.64425925926</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>ඇඹිලිපිටිය හරිත වර්ණ පරිසරයකින්, පිරිසිදු සින්නක්කර ඔප්පු සහිත අගනා බිම් කොටස්
 📲 අදම අමතන්න - 070 4000 700
@@ -3475,32 +3520,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E73" t="n">
+      <c r="E74" t="n">
         <v>1400</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F74" t="n">
         <v>44</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G74" t="n">
         <v>26</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>10160080906637290</t>
         </is>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="C75" s="2" t="n">
         <v>44706.50570601852</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Enjoy the Self-satisfaction of Having the Harvest from Your Own '40 Perch Fruit Land'
 📲 Call us Today - (+94) 70 300 55 11
@@ -3510,32 +3555,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E74" t="n">
+      <c r="E75" t="n">
         <v>5900</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F75" t="n">
         <v>651</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G75" t="n">
         <v>273</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>10160079511887290</t>
         </is>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="C76" s="2" t="n">
         <v>44705.77392361111</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>සුන්දර වෙල්යායකට මුහුණලා අනුරාධපුරෙන් අගනා බිම් කොටස්
 📲 අදම අමතන්න - 070 5000 777
@@ -3551,32 +3596,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E75" t="n">
+      <c r="E76" t="n">
         <v>1100</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F76" t="n">
         <v>63</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G76" t="n">
         <v>10</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>10160078427252290</t>
         </is>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="C77" s="2" t="n">
         <v>44705.13203703704</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>අම්බලන්ගොඩින් සියලු පහසුකම් සමඟ අගනා බිම් කොටස්
 👉 අම්බලන්ගොඩ නගරයට 3km
@@ -3600,32 +3645,32 @@
 අම්බලන්ගොඩින් සියලු පහසුකම් සමඟ අගනා බිම් කොටස්</t>
         </is>
       </c>
-      <c r="E76" t="n">
+      <c r="E77" t="n">
         <v>76</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F77" t="n">
         <v>67</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G77" t="n">
         <v>8</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>10160078327442290</t>
         </is>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C78" s="2" t="n">
         <v>44705.09924768518</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Exclusive lands plots from Kiribathgoda Town
 👉 Just 300m to Kiribathgoda Town
@@ -3637,32 +3682,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E77" t="n">
+      <c r="E78" t="n">
         <v>841</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F78" t="n">
         <v>70</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G78" t="n">
         <v>6</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>10160078317292290</t>
         </is>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C79" s="2" t="n">
         <v>44705.09762731481</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Precious Lands Facing Bolgoda Lake to Build Your Perfect Getaway Destination or For Investment Purposes
 📲 Call us Today - (+94) 70 300 55 11
@@ -3673,32 +3718,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E78" t="n">
+      <c r="E79" t="n">
         <v>1400</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F79" t="n">
         <v>57</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G79" t="n">
         <v>15</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>10160077482957290</t>
         </is>
       </c>
-      <c r="C79" s="2" t="n">
+      <c r="C80" s="2" t="n">
         <v>44704.62560185185</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>The Best time to invest in a land is “NOW”
 Invest in a precious property and enjoy high returns with Prime Lands!
@@ -3706,32 +3751,32 @@
 #PrimeGroup #Primelands</t>
         </is>
       </c>
-      <c r="E79" t="n">
+      <c r="E80" t="n">
         <v>2700</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F80" t="n">
         <v>11</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G80" t="n">
         <v>11</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>10160069061847290</t>
         </is>
       </c>
-      <c r="C80" s="2" t="n">
+      <c r="C81" s="2" t="n">
         <v>44699.85993055555</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Embrace The Mesmerising Views and The Cool Climate from Your Own Land in Ramboda
 Brought Exclusively to You by Prime Group
@@ -3741,32 +3786,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E80" t="n">
+      <c r="E81" t="n">
         <v>3800</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F81" t="n">
         <v>69</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G81" t="n">
         <v>58</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>10160068989762290</t>
         </is>
       </c>
-      <c r="C81" s="2" t="n">
+      <c r="C82" s="2" t="n">
         <v>44699.81239583333</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>අහංගම - ඉමදූව බස් පාරට මුහුණලා අගනා බිම් කොටස්
 📲 අදම අමතන්න - 070 5000 222
@@ -3786,32 +3831,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E81" t="n">
+      <c r="E82" t="n">
         <v>1500</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F82" t="n">
         <v>85</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G82" t="n">
         <v>12</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>10160067016682290</t>
         </is>
       </c>
-      <c r="C82" s="2" t="n">
+      <c r="C83" s="2" t="n">
         <v>44698.63201388889</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Enjoy The Cool Climate of The Hill Country
 Precious Land Plots from Nuwara Eliya, Ambewela and Kandapola
@@ -3819,32 +3864,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E82" t="n">
+      <c r="E83" t="n">
         <v>2500</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F83" t="n">
         <v>123</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G83" t="n">
         <v>49</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>10160065996042290</t>
         </is>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="C84" s="2" t="n">
         <v>44698.07297453703</v>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>හොරණ - කළුතර බස් පාරට මීටර් 100ක් දුරින් අගනා බිම් කොටස්
 📲 අදම අමතන්න - 070 300 55 44
@@ -3862,32 +3907,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E83" t="n">
+      <c r="E84" t="n">
         <v>1100</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F84" t="n">
         <v>104</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G84" t="n">
         <v>5</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>10160065975442290</t>
         </is>
       </c>
-      <c r="C84" s="2" t="n">
+      <c r="C85" s="2" t="n">
         <v>44698.06515046296</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Find Your Calm at Green Embazy, Homagama
 Green Embazy Offers You The Ultimate Living Experience with a Variety of Nature Views, Mesmerizing Lake &amp; The Scenic View of a Paddy Field
@@ -3905,32 +3950,32 @@
 Find Your Calm at Green Embazy, Homagama</t>
         </is>
       </c>
-      <c r="E84" t="n">
+      <c r="E85" t="n">
         <v>16</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F85" t="n">
         <v>6</v>
       </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>10160065968882290</t>
         </is>
       </c>
-      <c r="C85" s="2" t="n">
+      <c r="C86" s="2" t="n">
         <v>44698.06234953704</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>තමන්ටම කියලා, කොළඹින් අක්කර කාලක පළතුරු වත්තක්
 📲 අදම අමතන්න - (+94) 70 300 55 11
@@ -3944,64 +3989,64 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E85" t="n">
+      <c r="E86" t="n">
         <v>1600</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F86" t="n">
         <v>897</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G86" t="n">
         <v>82</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>10160059590612290</t>
         </is>
       </c>
-      <c r="C86" s="2" t="n">
+      <c r="C87" s="2" t="n">
         <v>44694.57118055555</v>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>හොඳ ආයෝජනයකට, හොඳම ඉඩම්
 Prime Group වෙතින්
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E86" t="n">
+      <c r="E87" t="n">
         <v>102</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F87" t="n">
         <v>18</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G87" t="n">
         <v>4</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>10160050903722290</t>
         </is>
       </c>
-      <c r="C87" s="2" t="n">
+      <c r="C88" s="2" t="n">
         <v>44690.63017361111</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>අහංගම - ඉමදූව බස් පාරට මුහුණලා අගනා බිම් කොටස්
 📲 අදම අමතන්න - 070 5000 222
@@ -4021,32 +4066,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E87" t="n">
+      <c r="E88" t="n">
         <v>20</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F88" t="n">
         <v>10</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G88" t="n">
         <v>1</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>10160050798642290</t>
         </is>
       </c>
-      <c r="C88" s="2" t="n">
+      <c r="C89" s="2" t="n">
         <v>44690.58041666666</v>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Precious Land Plots from Nuwara Eliya
 👉 With close Proximity to Nuwara Eliya Black Pool Hotel
@@ -4058,32 +4103,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E88" t="n">
+      <c r="E89" t="n">
         <v>17</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F89" t="n">
         <v>14</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G89" t="n">
         <v>3</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>10160050767177290</t>
         </is>
       </c>
-      <c r="C89" s="2" t="n">
+      <c r="C90" s="2" t="n">
         <v>44690.56480324074</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Precious Land Plots from Wattala
 📲 Call us Today - (+94) 70 500 66 22
@@ -4096,32 +4141,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E89" t="n">
+      <c r="E90" t="n">
         <v>33</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F90" t="n">
         <v>56</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G90" t="n">
         <v>3</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>10160050719542290</t>
         </is>
       </c>
-      <c r="C90" s="2" t="n">
+      <c r="C91" s="2" t="n">
         <v>44690.54659722222</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Enjoy the Self-satisfaction of Having the Harvest from Your Own '40 Perch Fruit Land'
 📲 Call us Today - (+94) 70 300 55 11
@@ -4131,32 +4176,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E90" t="n">
+      <c r="E91" t="n">
         <v>23</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F91" t="n">
         <v>23</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G91" t="n">
         <v>2</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>10160048425947290</t>
         </is>
       </c>
-      <c r="C91" s="2" t="n">
+      <c r="C92" s="2" t="n">
         <v>44689.4131712963</v>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Warm Wishes from Prime Group to All The Strong Mothers
 You are The Real Heros who Shaped Our Lives
@@ -4164,32 +4209,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E91" t="n">
+      <c r="E92" t="n">
         <v>46</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F92" t="n">
         <v>8</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G92" t="n">
         <v>10</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>10160046811607290</t>
         </is>
       </c>
-      <c r="C92" s="2" t="n">
+      <c r="C93" s="2" t="n">
         <v>44688.51293981481</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Prime Group Wins Global...!!!
 Prime Group Won Four Awards at the 11th ACEF Global Customer Engagement Awards, for One of our Signature Campaigns, ‘හොඳ කියන්නෙත් හොඳ ආයෝජනයක් phase 03’
@@ -4197,32 +4242,32 @@
 #PrimeGroup #ACEF</t>
         </is>
       </c>
-      <c r="E92" t="n">
+      <c r="E93" t="n">
         <v>47</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F93" t="n">
         <v>10</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G93" t="n">
         <v>14</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>10160045127092290</t>
         </is>
       </c>
-      <c r="C93" s="2" t="n">
+      <c r="C94" s="2" t="n">
         <v>44687.60353009259</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Are You Planning to Buy a Land?
 👉 We Love to Hear from You.
@@ -4231,32 +4276,32 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E93" t="n">
+      <c r="E94" t="n">
         <v>5200</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F94" t="n">
         <v>28</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G94" t="n">
         <v>12</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>10160043475707290</t>
         </is>
       </c>
-      <c r="C94" s="2" t="n">
+      <c r="C95" s="2" t="n">
         <v>44686.75815972222</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Prime Group crowned ‘Most Valuable Real Estate Consumer Brand’ in Sri Lanka.
 Prime Lands Residencies PLC has been ranked the most valuable real estate brand in Sri Lanka for the year 2021 by Brand Finance – in LMD’s brands annual guide to Sri Lanka’s most valuable brands
@@ -4264,16 +4309,16 @@
 #PrimeGroup</t>
         </is>
       </c>
-      <c r="E94" t="n">
+      <c r="E95" t="n">
         <v>3300</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F95" t="n">
         <v>15</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G95" t="n">
         <v>30</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4392,7 +4437,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
